--- a/data/nextplay.xlsx
+++ b/data/nextplay.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\github\sql-nosql-training\SQL\sql-server\Nextplay-ecommerce\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\dashboard-nextplay\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBAA82A-898E-46AC-9467-C8E451310E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99403B6D-BB51-4127-B4DB-9322185175E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{57C6A387-97B4-4502-83C3-40BC542991D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C6A387-97B4-4502-83C3-40BC542991D2}"/>
   </bookViews>
   <sheets>
     <sheet name="categorias" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="356">
-  <si>
-    <t>cateoria_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="355">
   <si>
     <t>nome</t>
   </si>
@@ -1119,7 +1116,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-1540A]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1132,6 +1129,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1222,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1245,6 +1250,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1288,7 +1294,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3EBDF058-471F-40BD-9EDC-C4E79ED08C2A}" name="Tabela5" displayName="Tabela5" ref="A1:B14" totalsRowShown="0">
   <autoFilter ref="A1:B14" xr:uid="{3EBDF058-471F-40BD-9EDC-C4E79ED08C2A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5223F141-F8DA-41DF-9AD6-D9B5F3DC3080}" name="cateoria_id"/>
+    <tableColumn id="1" xr3:uid="{5223F141-F8DA-41DF-9AD6-D9B5F3DC3080}" name="categoria_id"/>
     <tableColumn id="2" xr3:uid="{C2DECF24-0758-4C18-82C5-037F883B7057}" name="nome"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1676,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2984ECB7-24F7-49D7-AE45-324D7DB983F5}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,10 +1694,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1699,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1707,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1715,15 +1721,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1731,7 +1737,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1739,7 +1745,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1747,7 +1753,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1755,7 +1761,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1763,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1771,7 +1777,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1779,7 +1785,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1787,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1795,7 +1801,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1827,28 +1833,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1856,19 +1862,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="3">
         <v>552194581893</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
       </c>
       <c r="G2" s="6">
         <v>15585</v>
@@ -1882,19 +1888,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>557196187500</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="6">
         <v>16428</v>
@@ -1908,19 +1914,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>555197776378</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="6">
         <v>18676</v>
@@ -1934,19 +1940,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>556199990939</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="6">
         <v>14846</v>
@@ -1960,19 +1966,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="2">
         <v>555193717376</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="6">
         <v>25345</v>
@@ -1986,19 +1992,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="2">
         <v>558497374920</v>
       </c>
       <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
       </c>
       <c r="G7" s="6">
         <v>19868</v>
@@ -2012,19 +2018,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D8" s="2">
         <v>556197206564</v>
       </c>
       <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
         <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
       </c>
       <c r="G8" s="6">
         <v>26901</v>
@@ -2038,19 +2044,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D9" s="2">
         <v>558491687868</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="6">
         <v>27698</v>
@@ -2064,19 +2070,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D10" s="2">
         <v>555195435852</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="6">
         <v>33997</v>
@@ -2090,19 +2096,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="2">
         <v>553194437263</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="6">
         <v>21760</v>
@@ -2116,19 +2122,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D12" s="2">
         <v>558498804212</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="6">
         <v>20764</v>
@@ -2142,19 +2148,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D13" s="2">
         <v>551194616350</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="6">
         <v>38952</v>
@@ -2168,19 +2174,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D14" s="2">
         <v>557193226764</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="6">
         <v>32494</v>
@@ -2194,19 +2200,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D15" s="2">
         <v>553190260838</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="6">
         <v>34083</v>
@@ -2220,19 +2226,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D16" s="2">
         <v>551195419039</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="6">
         <v>33187</v>
@@ -2246,19 +2252,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D17" s="2">
         <v>558496525721</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="6">
         <v>20699</v>
@@ -2272,19 +2278,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D18" s="2">
         <v>558194519505</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="6">
         <v>25632</v>
@@ -2298,19 +2304,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D19" s="2">
         <v>553190742600</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="6">
         <v>34056</v>
@@ -2324,19 +2330,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D20" s="2">
         <v>558498497507</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="6">
         <v>38588</v>
@@ -2350,19 +2356,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D21" s="2">
         <v>553191102289</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="6">
         <v>19497</v>
@@ -2376,19 +2382,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D22" s="2">
         <v>558193933207</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="6">
         <v>25340</v>
@@ -2402,19 +2408,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D23" s="2">
         <v>553195543785</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="6">
         <v>38397</v>
@@ -2428,19 +2434,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D24" s="2">
         <v>556190857863</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" s="6">
         <v>16334</v>
@@ -2454,19 +2460,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D25" s="2">
         <v>558190028930</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="6">
         <v>24112</v>
@@ -2480,19 +2486,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D26" s="2">
         <v>558193990152</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="6">
         <v>35493</v>
@@ -2506,19 +2512,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D27" s="2">
         <v>556192421311</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" s="6">
         <v>37103</v>
@@ -2532,19 +2538,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D28" s="2">
         <v>558498688157</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" s="6">
         <v>28104</v>
@@ -2558,19 +2564,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D29" s="2">
         <v>557198267761</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" s="6">
         <v>13028</v>
@@ -2584,19 +2590,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D30" s="2">
         <v>558198964577</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" s="6">
         <v>26913</v>
@@ -2610,19 +2616,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D31" s="2">
         <v>553196361522</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31" s="6">
         <v>33942</v>
@@ -2636,19 +2642,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D32" s="2">
         <v>555197232163</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G32" s="6">
         <v>38037</v>
@@ -2662,19 +2668,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D33" s="2">
         <v>551194752019</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G33" s="6">
         <v>31361</v>
@@ -2688,19 +2694,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D34" s="2">
         <v>556192294167</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="6">
         <v>19622</v>
@@ -2714,19 +2720,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D35" s="2">
         <v>553192586844</v>
       </c>
       <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
         <v>24</v>
-      </c>
-      <c r="F35" t="s">
-        <v>25</v>
       </c>
       <c r="G35" s="6">
         <v>33191</v>
@@ -2740,19 +2746,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D36" s="2">
         <v>553196610490</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G36" s="6">
         <v>33617</v>
@@ -2766,19 +2772,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D37" s="2">
         <v>558197096878</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G37" s="6">
         <v>38937</v>
@@ -2792,19 +2798,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D38" s="2">
         <v>552194077073</v>
       </c>
       <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
         <v>44</v>
-      </c>
-      <c r="F38" t="s">
-        <v>45</v>
       </c>
       <c r="G38" s="6">
         <v>26608</v>
@@ -2818,19 +2824,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D39" s="2">
         <v>554191378643</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G39" s="6">
         <v>15447</v>
@@ -2844,19 +2850,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D40" s="2">
         <v>551199690603</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G40" s="6">
         <v>36887</v>
@@ -2870,19 +2876,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D41" s="2">
         <v>552198674668</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G41" s="6">
         <v>21960</v>
@@ -2896,19 +2902,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D42" s="2">
         <v>551199834690</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G42" s="6">
         <v>33360</v>
@@ -2922,19 +2928,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D43" s="2">
         <v>553191041794</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G43" s="6">
         <v>31489</v>
@@ -2948,19 +2954,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D44" s="2">
         <v>558497503292</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44" s="6">
         <v>33472</v>
@@ -2974,19 +2980,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D45" s="2">
         <v>557197778846</v>
       </c>
       <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
         <v>44</v>
-      </c>
-      <c r="F45" t="s">
-        <v>45</v>
       </c>
       <c r="G45" s="6">
         <v>13270</v>
@@ -3000,19 +3006,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D46" s="2">
         <v>556190641685</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G46" s="6">
         <v>30081</v>
@@ -3026,19 +3032,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D47" s="2">
         <v>556193525381</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47" s="6">
         <v>37322</v>
@@ -3052,19 +3058,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D48" s="2">
         <v>551196203494</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G48" s="6">
         <v>26023</v>
@@ -3078,19 +3084,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D49" s="2">
         <v>551190356373</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G49" s="6">
         <v>16662</v>
@@ -3104,19 +3110,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D50" s="2">
         <v>555193281280</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G50" s="6">
         <v>38878</v>
@@ -3130,19 +3136,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D51" s="2">
         <v>553190051369</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G51" s="6">
         <v>17344</v>
@@ -3156,19 +3162,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D52" s="2">
         <v>552195879635</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G52" s="6">
         <v>33753</v>
@@ -3182,19 +3188,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D53" s="2">
         <v>551190664256</v>
       </c>
       <c r="E53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53" s="6">
         <v>35430</v>
@@ -3208,19 +3214,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D54" s="2">
         <v>552199086496</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G54" s="6">
         <v>32575</v>
@@ -3234,19 +3240,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D55" s="2">
         <v>558491697136</v>
       </c>
       <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" t="s">
         <v>40</v>
-      </c>
-      <c r="F55" t="s">
-        <v>41</v>
       </c>
       <c r="G55" s="6">
         <v>31808</v>
@@ -3260,19 +3266,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D56" s="2">
         <v>551197437785</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G56" s="6">
         <v>37817</v>
@@ -3286,19 +3292,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D57" s="2">
         <v>558191100496</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G57" s="6">
         <v>35313</v>
@@ -3312,19 +3318,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D58" s="2">
         <v>551194991866</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G58" s="6">
         <v>34982</v>
@@ -3338,19 +3344,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D59" s="2">
         <v>558191642653</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G59" s="6">
         <v>33835</v>
@@ -3364,19 +3370,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D60" s="2">
         <v>552190145280</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G60" s="6">
         <v>36555</v>
@@ -3390,19 +3396,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D61" s="2">
         <v>555198721249</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G61" s="6">
         <v>35696</v>
@@ -3416,19 +3422,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="D62" s="2">
         <v>552193256199</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G62" s="6">
         <v>35448</v>
@@ -3442,19 +3448,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D63" s="2">
         <v>556197947501</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G63" s="6">
         <v>32151</v>
@@ -3468,19 +3474,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="D64" s="2">
         <v>554193043632</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G64" s="6">
         <v>38799</v>
@@ -3494,19 +3500,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="D65" s="2">
         <v>554192213540</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G65" s="6">
         <v>34885</v>
@@ -3520,19 +3526,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D66" s="2">
         <v>556196115427</v>
       </c>
       <c r="E66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66" s="6">
         <v>35556</v>
@@ -3546,19 +3552,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="D67" s="2">
         <v>555199779625</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G67" s="6">
         <v>33629</v>
@@ -3572,19 +3578,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D68" s="2">
         <v>555192673882</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G68" s="6">
         <v>36259</v>
@@ -3598,19 +3604,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D69" s="2">
         <v>555194157800</v>
       </c>
       <c r="E69" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" t="s">
         <v>40</v>
-      </c>
-      <c r="F69" t="s">
-        <v>41</v>
       </c>
       <c r="G69" s="6">
         <v>33958</v>
@@ -3624,19 +3630,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D70" s="2">
         <v>553193545994</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G70" s="6">
         <v>32597</v>
@@ -3650,19 +3656,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D71" s="2">
         <v>555192227741</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G71" s="6">
         <v>31932</v>
@@ -3676,19 +3682,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D72" s="2">
         <v>558198590381</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G72" s="6">
         <v>32556</v>
@@ -3702,19 +3708,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D73" s="2">
         <v>551199624134</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G73" s="6">
         <v>36020</v>
@@ -3728,19 +3734,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D74" s="2">
         <v>556191830189</v>
       </c>
       <c r="E74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74" s="6">
         <v>31438</v>
@@ -3754,19 +3760,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D75" s="2">
         <v>556191767312</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G75" s="6">
         <v>34436</v>
@@ -3780,19 +3786,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D76" s="2">
         <v>558196570671</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" s="6">
         <v>31579</v>
@@ -3806,19 +3812,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D77" s="2">
         <v>553195010724</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G77" s="6">
         <v>34787</v>
@@ -3832,19 +3838,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="D78" s="2">
         <v>553197655747</v>
       </c>
       <c r="E78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G78" s="6">
         <v>35512</v>
@@ -3858,19 +3864,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D79" s="2">
         <v>558192439374</v>
       </c>
       <c r="E79" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79" t="s">
         <v>40</v>
-      </c>
-      <c r="F79" t="s">
-        <v>41</v>
       </c>
       <c r="G79" s="6">
         <v>35380</v>
@@ -3884,19 +3890,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D80" s="2">
         <v>558196708225</v>
       </c>
       <c r="E80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G80" s="6">
         <v>34627</v>
@@ -3910,19 +3916,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D81" s="2">
         <v>558498138404</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G81" s="6">
         <v>38086</v>
@@ -3936,19 +3942,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D82" s="2">
         <v>552199564460</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G82" s="6">
         <v>32083</v>
@@ -3962,19 +3968,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D83" s="2">
         <v>558491889430</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G83" s="6">
         <v>37402</v>
@@ -3988,19 +3994,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D84" s="2">
         <v>552197405847</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G84" s="6">
         <v>34443</v>
@@ -4014,19 +4020,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D85" s="2">
         <v>556190490103</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G85" s="6">
         <v>37923</v>
@@ -4040,19 +4046,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D86" s="2">
         <v>551190077430</v>
       </c>
       <c r="E86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G86" s="6">
         <v>38950</v>
@@ -4066,19 +4072,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D87" s="2">
         <v>553198349700</v>
       </c>
       <c r="E87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G87" s="6">
         <v>37238</v>
@@ -4092,19 +4098,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D88" s="2">
         <v>558498908633</v>
       </c>
       <c r="E88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G88" s="6">
         <v>31382</v>
@@ -4118,19 +4124,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D89" s="2">
         <v>551194700667</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G89" s="6">
         <v>33535</v>
@@ -4144,19 +4150,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D90" s="2">
         <v>551192115513</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G90" s="6">
         <v>32531</v>
@@ -4170,19 +4176,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="D91" s="2">
         <v>558495426806</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G91" s="6">
         <v>32746</v>
@@ -4196,19 +4202,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="D92" s="2">
         <v>552199785612</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G92" s="6">
         <v>34832</v>
@@ -4222,19 +4228,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D93" s="2">
         <v>557195952573</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G93" s="6">
         <v>32828</v>
@@ -4248,19 +4254,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="D94" s="2">
         <v>552196741233</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G94" s="6">
         <v>36907</v>
@@ -4274,19 +4280,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="D95" s="2">
         <v>558191205682</v>
       </c>
       <c r="E95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G95" s="6">
         <v>35964</v>
@@ -4300,19 +4306,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>223</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D96" s="2">
         <v>556191408381</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G96" s="6">
         <v>30934</v>
@@ -4335,7 +4341,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F45"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,22 +4355,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>226</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>227</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>228</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>229</v>
-      </c>
-      <c r="F1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4372,13 +4378,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
         <v>231</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>232</v>
-      </c>
-      <c r="D2" t="s">
-        <v>233</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4392,13 +4398,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" t="s">
         <v>234</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>235</v>
-      </c>
-      <c r="D3" t="s">
-        <v>236</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4412,13 +4418,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
         <v>237</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>238</v>
-      </c>
-      <c r="D4" t="s">
-        <v>239</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4432,13 +4438,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" t="s">
         <v>240</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>241</v>
-      </c>
-      <c r="D5" t="s">
-        <v>242</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4452,13 +4458,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
         <v>243</v>
       </c>
-      <c r="C6" t="s">
-        <v>244</v>
-      </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4472,13 +4478,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
         <v>245</v>
-      </c>
-      <c r="C7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" t="s">
-        <v>246</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4492,13 +4498,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" t="s">
         <v>247</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>248</v>
-      </c>
-      <c r="D8" t="s">
-        <v>249</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4512,13 +4518,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s">
         <v>250</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>251</v>
-      </c>
-      <c r="D9" t="s">
-        <v>252</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4532,13 +4538,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
         <v>253</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>254</v>
-      </c>
-      <c r="D10" t="s">
-        <v>255</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4552,13 +4558,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="s">
         <v>256</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>257</v>
-      </c>
-      <c r="D11" t="s">
-        <v>258</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4572,13 +4578,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" t="s">
         <v>259</v>
-      </c>
-      <c r="C12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D12" t="s">
-        <v>260</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4592,13 +4598,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" t="s">
         <v>261</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>262</v>
-      </c>
-      <c r="D13" t="s">
-        <v>263</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4612,13 +4618,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" t="s">
         <v>264</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>265</v>
-      </c>
-      <c r="D14" t="s">
-        <v>266</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4632,13 +4638,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" t="s">
         <v>267</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>268</v>
-      </c>
-      <c r="D15" t="s">
-        <v>269</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4652,13 +4658,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" t="s">
         <v>270</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>271</v>
-      </c>
-      <c r="D16" t="s">
-        <v>272</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4672,13 +4678,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" t="s">
         <v>273</v>
       </c>
-      <c r="C17" t="s">
-        <v>274</v>
-      </c>
       <c r="D17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4692,13 +4698,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" t="s">
         <v>275</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>276</v>
-      </c>
-      <c r="D18" t="s">
-        <v>277</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4712,13 +4718,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" t="s">
         <v>278</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>279</v>
-      </c>
-      <c r="D19" t="s">
-        <v>280</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4732,13 +4738,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" t="s">
         <v>281</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>282</v>
-      </c>
-      <c r="D20" t="s">
-        <v>283</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4752,13 +4758,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" t="s">
         <v>284</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>285</v>
-      </c>
-      <c r="D21" t="s">
-        <v>286</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4772,13 +4778,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" t="s">
         <v>287</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>288</v>
-      </c>
-      <c r="D22" t="s">
-        <v>289</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4792,13 +4798,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" t="s">
         <v>290</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>291</v>
-      </c>
-      <c r="D23" t="s">
-        <v>292</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4812,13 +4818,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" t="s">
         <v>293</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>294</v>
-      </c>
-      <c r="D24" t="s">
-        <v>295</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4832,13 +4838,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" t="s">
         <v>296</v>
       </c>
-      <c r="C25" t="s">
-        <v>297</v>
-      </c>
       <c r="D25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4852,13 +4858,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" t="s">
         <v>298</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>299</v>
-      </c>
-      <c r="D26" t="s">
-        <v>300</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4872,13 +4878,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" t="s">
         <v>301</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>302</v>
-      </c>
-      <c r="D27" t="s">
-        <v>303</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4892,13 +4898,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" t="s">
         <v>304</v>
-      </c>
-      <c r="C28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" t="s">
-        <v>305</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4912,13 +4918,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" t="s">
         <v>306</v>
       </c>
-      <c r="C29" t="s">
-        <v>307</v>
-      </c>
       <c r="D29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4932,13 +4938,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" t="s">
         <v>308</v>
-      </c>
-      <c r="C30" t="s">
-        <v>307</v>
-      </c>
-      <c r="D30" t="s">
-        <v>309</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4952,13 +4958,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C31" t="s">
         <v>310</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>311</v>
-      </c>
-      <c r="D31" t="s">
-        <v>312</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4972,13 +4978,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" t="s">
         <v>313</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>314</v>
-      </c>
-      <c r="D32" t="s">
-        <v>315</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4992,13 +4998,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" t="s">
         <v>316</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>317</v>
-      </c>
-      <c r="D33" t="s">
-        <v>318</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5012,13 +5018,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" t="s">
         <v>319</v>
-      </c>
-      <c r="C34" t="s">
-        <v>314</v>
-      </c>
-      <c r="D34" t="s">
-        <v>320</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5032,13 +5038,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" t="s">
+        <v>313</v>
+      </c>
+      <c r="D35" t="s">
         <v>321</v>
-      </c>
-      <c r="C35" t="s">
-        <v>314</v>
-      </c>
-      <c r="D35" t="s">
-        <v>322</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5052,13 +5058,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" t="s">
         <v>323</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>324</v>
-      </c>
-      <c r="D36" t="s">
-        <v>325</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5072,13 +5078,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C37" t="s">
         <v>326</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>327</v>
-      </c>
-      <c r="D37" t="s">
-        <v>328</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5092,13 +5098,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D38" t="s">
         <v>329</v>
-      </c>
-      <c r="C38" t="s">
-        <v>327</v>
-      </c>
-      <c r="D38" t="s">
-        <v>330</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5112,13 +5118,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" t="s">
+        <v>326</v>
+      </c>
+      <c r="D39" t="s">
         <v>331</v>
-      </c>
-      <c r="C39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D39" t="s">
-        <v>332</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5132,13 +5138,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" t="s">
         <v>333</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>334</v>
-      </c>
-      <c r="D40" t="s">
-        <v>335</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5152,13 +5158,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C41" t="s">
         <v>336</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>337</v>
-      </c>
-      <c r="D41" t="s">
-        <v>338</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5172,13 +5178,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C42" t="s">
         <v>339</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>340</v>
-      </c>
-      <c r="D42" t="s">
-        <v>341</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5192,13 +5198,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C43" t="s">
         <v>342</v>
       </c>
-      <c r="C43" t="s">
-        <v>343</v>
-      </c>
       <c r="D43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5212,13 +5218,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" t="s">
         <v>344</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>345</v>
-      </c>
-      <c r="D44" t="s">
-        <v>346</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5232,13 +5238,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" t="s">
         <v>347</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>348</v>
-      </c>
-      <c r="D45" t="s">
-        <v>349</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5274,22 +5280,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>226</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>227</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>228</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>229</v>
-      </c>
-      <c r="F1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5297,13 +5303,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
         <v>231</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>232</v>
-      </c>
-      <c r="D2" t="s">
-        <v>233</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -5317,13 +5323,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" t="s">
         <v>234</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>235</v>
-      </c>
-      <c r="D3" t="s">
-        <v>236</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -5337,13 +5343,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
         <v>237</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>238</v>
-      </c>
-      <c r="D4" t="s">
-        <v>239</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -5357,13 +5363,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" t="s">
         <v>240</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>241</v>
-      </c>
-      <c r="D5" t="s">
-        <v>242</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -5377,13 +5383,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
         <v>243</v>
       </c>
-      <c r="C6" t="s">
-        <v>244</v>
-      </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -5397,13 +5403,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
         <v>245</v>
-      </c>
-      <c r="C7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" t="s">
-        <v>246</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -5417,13 +5423,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" t="s">
         <v>247</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>248</v>
-      </c>
-      <c r="D8" t="s">
-        <v>249</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -5437,13 +5443,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s">
         <v>250</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>251</v>
-      </c>
-      <c r="D9" t="s">
-        <v>252</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -5457,13 +5463,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
         <v>253</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>254</v>
-      </c>
-      <c r="D10" t="s">
-        <v>255</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -5477,13 +5483,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="s">
         <v>256</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>257</v>
-      </c>
-      <c r="D11" t="s">
-        <v>258</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -5497,13 +5503,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" t="s">
         <v>259</v>
-      </c>
-      <c r="C12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D12" t="s">
-        <v>260</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -5517,13 +5523,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" t="s">
         <v>261</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>262</v>
-      </c>
-      <c r="D13" t="s">
-        <v>263</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -5537,13 +5543,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" t="s">
         <v>264</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>265</v>
-      </c>
-      <c r="D14" t="s">
-        <v>266</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -5557,13 +5563,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" t="s">
         <v>267</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>268</v>
-      </c>
-      <c r="D15" t="s">
-        <v>269</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -5577,13 +5583,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" t="s">
         <v>270</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>271</v>
-      </c>
-      <c r="D16" t="s">
-        <v>272</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -5597,13 +5603,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" t="s">
         <v>273</v>
       </c>
-      <c r="C17" t="s">
-        <v>274</v>
-      </c>
       <c r="D17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -5617,13 +5623,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" t="s">
         <v>275</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>276</v>
-      </c>
-      <c r="D18" t="s">
-        <v>277</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -5637,13 +5643,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" t="s">
         <v>278</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>279</v>
-      </c>
-      <c r="D19" t="s">
-        <v>280</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -5657,13 +5663,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" t="s">
         <v>281</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>282</v>
-      </c>
-      <c r="D20" t="s">
-        <v>283</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -5677,13 +5683,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" t="s">
         <v>284</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>285</v>
-      </c>
-      <c r="D21" t="s">
-        <v>286</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -5697,13 +5703,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" t="s">
         <v>287</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>288</v>
-      </c>
-      <c r="D22" t="s">
-        <v>289</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -5717,13 +5723,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" t="s">
         <v>290</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>291</v>
-      </c>
-      <c r="D23" t="s">
-        <v>292</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5737,13 +5743,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" t="s">
         <v>293</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>294</v>
-      </c>
-      <c r="D24" t="s">
-        <v>295</v>
       </c>
       <c r="E24">
         <v>8</v>
@@ -5757,13 +5763,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" t="s">
         <v>296</v>
       </c>
-      <c r="C25" t="s">
-        <v>297</v>
-      </c>
       <c r="D25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -5777,13 +5783,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" t="s">
         <v>298</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>299</v>
-      </c>
-      <c r="D26" t="s">
-        <v>300</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5797,13 +5803,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" t="s">
         <v>301</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>302</v>
-      </c>
-      <c r="D27" t="s">
-        <v>303</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -5817,13 +5823,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" t="s">
         <v>304</v>
-      </c>
-      <c r="C28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" t="s">
-        <v>305</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -5837,13 +5843,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" t="s">
         <v>306</v>
       </c>
-      <c r="C29" t="s">
-        <v>307</v>
-      </c>
       <c r="D29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -5857,13 +5863,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" t="s">
         <v>308</v>
-      </c>
-      <c r="C30" t="s">
-        <v>307</v>
-      </c>
-      <c r="D30" t="s">
-        <v>309</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -5877,13 +5883,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C31" t="s">
         <v>310</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>311</v>
-      </c>
-      <c r="D31" t="s">
-        <v>312</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -5897,13 +5903,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" t="s">
         <v>313</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>314</v>
-      </c>
-      <c r="D32" t="s">
-        <v>315</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -5917,13 +5923,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" t="s">
         <v>316</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>317</v>
-      </c>
-      <c r="D33" t="s">
-        <v>318</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -5937,13 +5943,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" t="s">
         <v>319</v>
-      </c>
-      <c r="C34" t="s">
-        <v>314</v>
-      </c>
-      <c r="D34" t="s">
-        <v>320</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -5957,13 +5963,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" t="s">
+        <v>313</v>
+      </c>
+      <c r="D35" t="s">
         <v>321</v>
-      </c>
-      <c r="C35" t="s">
-        <v>314</v>
-      </c>
-      <c r="D35" t="s">
-        <v>322</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -5977,13 +5983,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" t="s">
         <v>323</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>324</v>
-      </c>
-      <c r="D36" t="s">
-        <v>325</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -5997,13 +6003,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C37" t="s">
         <v>326</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>327</v>
-      </c>
-      <c r="D37" t="s">
-        <v>328</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -6017,13 +6023,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D38" t="s">
         <v>329</v>
-      </c>
-      <c r="C38" t="s">
-        <v>327</v>
-      </c>
-      <c r="D38" t="s">
-        <v>330</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -6037,13 +6043,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" t="s">
+        <v>326</v>
+      </c>
+      <c r="D39" t="s">
         <v>331</v>
-      </c>
-      <c r="C39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D39" t="s">
-        <v>332</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -6057,13 +6063,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" t="s">
         <v>333</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>334</v>
-      </c>
-      <c r="D40" t="s">
-        <v>335</v>
       </c>
       <c r="E40">
         <v>9</v>
@@ -6077,13 +6083,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C41" t="s">
         <v>336</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>337</v>
-      </c>
-      <c r="D41" t="s">
-        <v>338</v>
       </c>
       <c r="E41">
         <v>9</v>
@@ -6097,13 +6103,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C42" t="s">
         <v>339</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>340</v>
-      </c>
-      <c r="D42" t="s">
-        <v>341</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -6117,13 +6123,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C43" t="s">
         <v>342</v>
       </c>
-      <c r="C43" t="s">
-        <v>343</v>
-      </c>
       <c r="D43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E43">
         <v>8</v>
@@ -6137,13 +6143,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" t="s">
         <v>344</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>345</v>
-      </c>
-      <c r="D44" t="s">
-        <v>346</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -6157,13 +6163,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" t="s">
         <v>347</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>348</v>
-      </c>
-      <c r="D45" t="s">
-        <v>349</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -6193,7 +6199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7778A4-2639-4BB5-97D3-528378CF9E58}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -6207,16 +6213,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7632,19 +7638,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
